--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2636785.903943807</v>
+        <v>-2639715.099322001</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.75851419067443</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.15942171964164</v>
+        <v>14.15942171964163</v>
       </c>
       <c r="H5" t="n">
-        <v>3.414231837792956</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.414231837793171</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="U5" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>24.44969929914603</v>
+        <v>24.44969929914624</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="H6" t="n">
-        <v>27.75851419067443</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.75851419067443</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="I7" t="n">
-        <v>27.75851419067443</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24.44969929914603</v>
+        <v>24.44969929914624</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="F8" t="n">
-        <v>192.1210419231128</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>72.93385014149919</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>30.19481470570295</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>22.58401760498691</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183515</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>36.24224822798589</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>210.5998990472839</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>362.1172408216255</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H11" t="n">
         <v>286.8518683469699</v>
@@ -1421,13 +1421,13 @@
         <v>91.9303487751657</v>
       </c>
       <c r="T11" t="n">
-        <v>200.6028050067863</v>
+        <v>73.43185217987174</v>
       </c>
       <c r="U11" t="n">
         <v>250.9345864167828</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>12.08840814344494</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4388282813464</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>334.6866761081431</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>238.8047027916325</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605494</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,7 +1780,7 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>86.13649374674407</v>
@@ -1816,22 +1816,22 @@
         <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>2.815912191001937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>12.2484843809216</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659962</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221648</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221648</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401414</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W23" t="n">
         <v>317.6307663651991</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510267</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424821</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612655</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2956,10 +2956,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221513</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612657</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894987</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3196,16 +3196,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221783</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112672</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187936</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3326,7 +3326,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663652005</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
         <v>338.1208983262551</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453024</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424839</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3521,7 +3521,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
-        <v>1.378737124468898e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424825</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894972</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3797,7 +3797,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179224</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
         <v>317.6307663651991</v>
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424834</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894972</v>
       </c>
       <c r="G44" t="n">
         <v>378.5542040247498</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179224</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
         <v>317.6307663651991</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612644</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.91734709398732</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="C5" t="n">
-        <v>26.91734709398732</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="D5" t="n">
-        <v>26.91734709398732</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="E5" t="n">
-        <v>26.91734709398732</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="F5" t="n">
-        <v>19.97184634478385</v>
+        <v>16.52312731671017</v>
       </c>
       <c r="G5" t="n">
-        <v>5.669400163327648</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220681135253954</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220681135253954</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="J5" t="n">
-        <v>29.70161018402164</v>
+        <v>29.70161018402188</v>
       </c>
       <c r="K5" t="n">
-        <v>57.18253923278932</v>
+        <v>29.70161018402188</v>
       </c>
       <c r="L5" t="n">
-        <v>57.18253923278932</v>
+        <v>29.70161018402188</v>
       </c>
       <c r="M5" t="n">
-        <v>57.18253923278932</v>
+        <v>29.70161018402188</v>
       </c>
       <c r="N5" t="n">
-        <v>57.18253923278932</v>
+        <v>29.70161018402188</v>
       </c>
       <c r="O5" t="n">
-        <v>57.18253923278932</v>
+        <v>56.07219866516282</v>
       </c>
       <c r="P5" t="n">
-        <v>83.55312771393002</v>
+        <v>83.55312771393073</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.0340567626977</v>
+        <v>111.0340567626986</v>
       </c>
       <c r="R5" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="S5" t="n">
-        <v>82.99515353979425</v>
+        <v>79.54643451172103</v>
       </c>
       <c r="T5" t="n">
-        <v>82.99515353979425</v>
+        <v>51.50753128881733</v>
       </c>
       <c r="U5" t="n">
-        <v>54.95625031689078</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="V5" t="n">
-        <v>54.95625031689078</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="W5" t="n">
-        <v>54.95625031689078</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="X5" t="n">
-        <v>54.95625031689078</v>
+        <v>23.46862806591364</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.95625031689078</v>
+        <v>23.46862806591364</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="C6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="D6" t="n">
-        <v>86.33739080396435</v>
+        <v>58.29848758106137</v>
       </c>
       <c r="E6" t="n">
-        <v>86.33739080396435</v>
+        <v>58.29848758106137</v>
       </c>
       <c r="F6" t="n">
-        <v>58.29848758106088</v>
+        <v>30.25958435815767</v>
       </c>
       <c r="G6" t="n">
-        <v>58.29848758106088</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="H6" t="n">
-        <v>30.25958435815742</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220681135253954</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220681135253954</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220681135253954</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="L6" t="n">
-        <v>28.59126961639465</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="M6" t="n">
-        <v>56.07219866516234</v>
+        <v>28.59126961639491</v>
       </c>
       <c r="N6" t="n">
-        <v>83.55312771393002</v>
+        <v>56.07219866516282</v>
       </c>
       <c r="O6" t="n">
-        <v>111.0340567626977</v>
+        <v>83.55312771393073</v>
       </c>
       <c r="P6" t="n">
-        <v>111.0340567626977</v>
+        <v>111.0340567626986</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0340567626977</v>
+        <v>111.0340567626986</v>
       </c>
       <c r="R6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="S6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="T6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="U6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="V6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="W6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="X6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.0340567626977</v>
+        <v>82.99515353979494</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="C7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="D7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="E7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="F7" t="n">
-        <v>54.95625031689078</v>
+        <v>54.95625031689124</v>
       </c>
       <c r="G7" t="n">
-        <v>54.95625031689078</v>
+        <v>54.95625031689124</v>
       </c>
       <c r="H7" t="n">
-        <v>54.95625031689078</v>
+        <v>26.91734709398754</v>
       </c>
       <c r="I7" t="n">
-        <v>26.91734709398732</v>
+        <v>26.91734709398754</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220681135253954</v>
+        <v>2.220681135253973</v>
       </c>
       <c r="K7" t="n">
-        <v>29.70161018402164</v>
+        <v>28.59126961639491</v>
       </c>
       <c r="L7" t="n">
-        <v>29.70161018402164</v>
+        <v>28.59126961639491</v>
       </c>
       <c r="M7" t="n">
-        <v>56.07219866516234</v>
+        <v>56.07219866516282</v>
       </c>
       <c r="N7" t="n">
-        <v>83.55312771393002</v>
+        <v>56.07219866516282</v>
       </c>
       <c r="O7" t="n">
-        <v>111.0340567626977</v>
+        <v>83.55312771393073</v>
       </c>
       <c r="P7" t="n">
-        <v>111.0340567626977</v>
+        <v>111.0340567626986</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="R7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="S7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="T7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="U7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="V7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="W7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="X7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.99515353979425</v>
+        <v>82.99515353979494</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.9866426825728</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="C8" t="n">
-        <v>345.9866426825728</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="D8" t="n">
-        <v>345.9866426825728</v>
+        <v>474.7712912700507</v>
       </c>
       <c r="E8" t="n">
-        <v>345.9866426825728</v>
+        <v>232.5410406220656</v>
       </c>
       <c r="F8" t="n">
-        <v>151.9249841743781</v>
+        <v>225.5955398728621</v>
       </c>
       <c r="G8" t="n">
-        <v>138.8776064512096</v>
+        <v>212.5481621496936</v>
       </c>
       <c r="H8" t="n">
         <v>138.8776064512096</v>
       </c>
       <c r="I8" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470348</v>
+        <v>40.41888584470428</v>
       </c>
       <c r="K8" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192966</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605498</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859573</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779377</v>
+        <v>643.3443219779397</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948971</v>
+        <v>813.5133472948993</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444232</v>
+        <v>924.2476725444259</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.231792566018</v>
+        <v>959.231792566021</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660182</v>
+        <v>959.231792566021</v>
       </c>
       <c r="S8" t="n">
-        <v>803.0167550628462</v>
+        <v>959.231792566021</v>
       </c>
       <c r="T8" t="n">
-        <v>588.2168933305572</v>
+        <v>959.231792566021</v>
       </c>
       <c r="U8" t="n">
-        <v>588.2168933305572</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="V8" t="n">
-        <v>588.2168933305572</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="W8" t="n">
-        <v>588.2168933305572</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="X8" t="n">
-        <v>588.2168933305572</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.9866426825728</v>
+        <v>717.0015419180359</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.5080939977181</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="C9" t="n">
-        <v>348.0550647165911</v>
+        <v>758.1532909967991</v>
       </c>
       <c r="D9" t="n">
-        <v>348.0550647165911</v>
+        <v>609.2188813355478</v>
       </c>
       <c r="E9" t="n">
-        <v>188.8176097111356</v>
+        <v>449.9814263300924</v>
       </c>
       <c r="F9" t="n">
-        <v>188.8176097111356</v>
+        <v>303.4468683569774</v>
       </c>
       <c r="G9" t="n">
         <v>166.0054707161993</v>
       </c>
       <c r="H9" t="n">
-        <v>65.0894928610039</v>
+        <v>65.08949286100393</v>
       </c>
       <c r="I9" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18463585132036</v>
+        <v>85.30141548166408</v>
       </c>
       <c r="K9" t="n">
-        <v>86.79245551467723</v>
+        <v>152.9092351450211</v>
       </c>
       <c r="L9" t="n">
-        <v>224.022053530371</v>
+        <v>290.1388331607151</v>
       </c>
       <c r="M9" t="n">
-        <v>461.4319221904605</v>
+        <v>469.6361695153199</v>
       </c>
       <c r="N9" t="n">
-        <v>660.0886638431249</v>
+        <v>668.2929111679846</v>
       </c>
       <c r="O9" t="n">
-        <v>827.8052238367427</v>
+        <v>827.8052238367452</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640413</v>
+        <v>936.4948513640441</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660182</v>
+        <v>959.231792566021</v>
       </c>
       <c r="R9" t="n">
-        <v>938.1198929682049</v>
+        <v>938.1198929682078</v>
       </c>
       <c r="S9" t="n">
-        <v>938.1198929682049</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="T9" t="n">
-        <v>938.1198929682049</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="U9" t="n">
-        <v>938.1198929682049</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="V9" t="n">
-        <v>938.1198929682049</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="W9" t="n">
-        <v>938.1198929682049</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="X9" t="n">
-        <v>730.2683927626721</v>
+        <v>788.6531038308425</v>
       </c>
       <c r="Y9" t="n">
-        <v>522.5080939977181</v>
+        <v>788.6531038308425</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.2269602933111</v>
+        <v>496.2089627745057</v>
       </c>
       <c r="C10" t="n">
-        <v>339.2269602933111</v>
+        <v>496.2089627745057</v>
       </c>
       <c r="D10" t="n">
-        <v>339.2269602933111</v>
+        <v>346.09232336217</v>
       </c>
       <c r="E10" t="n">
-        <v>191.313866710918</v>
+        <v>198.1792297797768</v>
       </c>
       <c r="F10" t="n">
-        <v>191.313866710918</v>
+        <v>198.1792297797768</v>
       </c>
       <c r="G10" t="n">
-        <v>191.313866710918</v>
+        <v>198.1792297797768</v>
       </c>
       <c r="H10" t="n">
-        <v>37.05922361068303</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="I10" t="n">
         <v>37.05922361068303</v>
       </c>
       <c r="J10" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="K10" t="n">
-        <v>120.2325654469301</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L10" t="n">
-        <v>305.0655603477483</v>
+        <v>305.0655603477486</v>
       </c>
       <c r="M10" t="n">
-        <v>450.4476363223399</v>
+        <v>450.4476363223422</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2710011584441</v>
+        <v>656.2710011584466</v>
       </c>
       <c r="O10" t="n">
-        <v>830.3658965470428</v>
+        <v>830.3658965470454</v>
       </c>
       <c r="P10" t="n">
-        <v>955.8134731456583</v>
+        <v>955.8134731456611</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660182</v>
+        <v>959.231792566021</v>
       </c>
       <c r="R10" t="n">
-        <v>959.2317925660182</v>
+        <v>959.231792566021</v>
       </c>
       <c r="S10" t="n">
-        <v>959.2317925660182</v>
+        <v>959.231792566021</v>
       </c>
       <c r="T10" t="n">
-        <v>733.6025958783831</v>
+        <v>959.231792566021</v>
       </c>
       <c r="U10" t="n">
-        <v>520.8754251235508</v>
+        <v>959.231792566021</v>
       </c>
       <c r="V10" t="n">
-        <v>520.8754251235508</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="W10" t="n">
-        <v>520.8754251235508</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="X10" t="n">
-        <v>520.8754251235508</v>
+        <v>717.0015419180359</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.8754251235508</v>
+        <v>496.2089627745057</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.026662509058</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C11" t="n">
-        <v>1497.064145568647</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.798446961896</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E11" t="n">
-        <v>753.0101943636519</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F11" t="n">
-        <v>753.0101943636519</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2352036347372</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S11" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T11" t="n">
-        <v>3953.532414632628</v>
+        <v>4081.987922538603</v>
       </c>
       <c r="U11" t="n">
-        <v>3700.063135423757</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.000248080186</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.231592810072</v>
+        <v>3475.749988059617</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.765834548992</v>
+        <v>3102.284229798537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.62650257318</v>
+        <v>2712.144897822725</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J12" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
         <v>519.5985603334505</v>
@@ -5127,10 +5127,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.315654538067</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O12" t="n">
         <v>1959.694692760353</v>
@@ -5179,31 +5179,31 @@
         <v>394.1975091615693</v>
       </c>
       <c r="D13" t="n">
-        <v>244.0808697492336</v>
+        <v>394.1975091615693</v>
       </c>
       <c r="E13" t="n">
-        <v>244.0808697492336</v>
+        <v>394.1975091615693</v>
       </c>
       <c r="F13" t="n">
-        <v>97.19092225132323</v>
+        <v>394.1975091615693</v>
       </c>
       <c r="G13" t="n">
-        <v>84.98040897511622</v>
+        <v>226.8378112795066</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J13" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K13" t="n">
-        <v>396.9405013869777</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L13" t="n">
-        <v>763.5004667042034</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M13" t="n">
         <v>1160.375677726126</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.626502573181</v>
+        <v>1866.026662509059</v>
       </c>
       <c r="C14" t="n">
-        <v>1883.663985632769</v>
+        <v>1497.064145568648</v>
       </c>
       <c r="D14" t="n">
-        <v>1525.398287026019</v>
+        <v>1138.798446961897</v>
       </c>
       <c r="E14" t="n">
-        <v>1139.610034427775</v>
+        <v>753.0101943636528</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>753.0101943636528</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347373</v>
+        <v>338.7027131748005</v>
       </c>
       <c r="H14" t="n">
         <v>97.48584166810105</v>
@@ -5276,7 +5276,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
         <v>766.683188695145</v>
@@ -5285,10 +5285,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
@@ -5364,19 +5364,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277778</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.25253785418</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.368901028491</v>
+        <v>953.2025296178707</v>
       </c>
       <c r="C16" t="n">
-        <v>927.4327181005837</v>
+        <v>784.2663466899638</v>
       </c>
       <c r="D16" t="n">
-        <v>777.3160786882479</v>
+        <v>634.1497072776281</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>486.236613695235</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>339.3466661973246</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>171.9869683152618</v>
       </c>
       <c r="H16" t="n">
         <v>171.9869683152618</v>
@@ -5464,22 +5464,22 @@
         <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.061021685725</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>2019.061021685725</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>2016.216665937238</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.799495900278</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.80994500226</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.01736585873</v>
+        <v>953.2025296178707</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G17" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5513,10 +5513,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,13 +5528,13 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
         <v>4249.020448755812</v>
@@ -5546,19 +5546,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.85573414777</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5735,22 +5735,22 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
         <v>766.683188695145</v>
@@ -5774,25 +5774,25 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
         <v>2476.13298385146</v>
@@ -5823,13 +5823,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
         <v>519.5985603334505</v>
@@ -5838,16 +5838,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
@@ -5932,10 +5932,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5944,10 +5944,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073043</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076836</v>
@@ -6008,13 +6008,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6023,16 +6023,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,13 +6060,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
         <v>519.5985603334505</v>
@@ -6078,13 +6078,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.315654538067</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609034</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039788</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315371</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6166,31 +6166,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,7 +6239,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
@@ -6257,19 +6257,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M27" t="n">
-        <v>973.3971899277778</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N27" t="n">
-        <v>1551.25253785418</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O27" t="n">
         <v>1959.694692760353</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609044</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511625</v>
@@ -6388,46 +6388,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,16 +6449,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076839</v>
@@ -6470,7 +6470,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
@@ -6479,34 +6479,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N30" t="n">
-        <v>1959.694692760353</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
@@ -6643,10 +6643,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
@@ -6655,10 +6655,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073043</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
@@ -6789,10 +6789,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E34" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F34" t="n">
         <v>386.7245456315384</v>
@@ -6853,22 +6853,22 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6877,19 +6877,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6923,16 +6923,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
         <v>337.4933016076843</v>
@@ -6947,40 +6947,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.17100246447</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
         <v>2168.542634771632</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.178257479669</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162853</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511765</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511626</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1665.552851106136</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
@@ -7327,7 +7327,7 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
@@ -7339,16 +7339,16 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7357,22 +7357,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7403,46 +7403,46 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
         <v>3496.71823738206</v>
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277781</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1551.252537854181</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C43" t="n">
         <v>735.8557341477722</v>
@@ -7552,25 +7552,25 @@
         <v>617.668592060905</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902786</v>
@@ -7582,19 +7582,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127669</v>
@@ -7637,19 +7637,19 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7658,28 +7658,28 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
         <v>3496.71823738206</v>
@@ -7719,22 +7719,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334506</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277781</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M45" t="n">
-        <v>1428.524759781582</v>
+        <v>850.66941185518</v>
       </c>
       <c r="N45" t="n">
         <v>1428.524759781582</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L46" t="n">
         <v>857.3827676902788</v>
@@ -7825,7 +7825,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352543</v>
@@ -7837,19 +7837,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>100.9222782029847</v>
       </c>
       <c r="L3" t="n">
-        <v>88.91201201533924</v>
+        <v>88.91201201533923</v>
       </c>
       <c r="M3" t="n">
         <v>84.20373222002493</v>
@@ -8216,22 +8216,22 @@
         <v>111.7669197196014</v>
       </c>
       <c r="K5" t="n">
-        <v>102.4143086146593</v>
+        <v>74.65579442398467</v>
       </c>
       <c r="L5" t="n">
-        <v>55.34260757265994</v>
+        <v>55.34260757265966</v>
       </c>
       <c r="M5" t="n">
-        <v>29.58998355183942</v>
+        <v>29.58998355183911</v>
       </c>
       <c r="N5" t="n">
-        <v>25.4083679172119</v>
+        <v>25.40836791721159</v>
       </c>
       <c r="O5" t="n">
-        <v>37.4623621837454</v>
+        <v>64.09932024550361</v>
       </c>
       <c r="P5" t="n">
-        <v>93.45971328033021</v>
+        <v>94.58126940924632</v>
       </c>
       <c r="Q5" t="n">
         <v>126.5989604545343</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>69.04275703702032</v>
+        <v>69.04275703702022</v>
       </c>
       <c r="K6" t="n">
-        <v>39.06080134589743</v>
+        <v>39.06080134589727</v>
       </c>
       <c r="L6" t="n">
-        <v>32.36858026233513</v>
+        <v>5.731622200576652</v>
       </c>
       <c r="M6" t="n">
-        <v>14.89465486239467</v>
+        <v>13.77309873347855</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.8091343465795</v>
+        <v>24.80913434657947</v>
       </c>
       <c r="P6" t="n">
-        <v>17.16121239387883</v>
+        <v>44.91972658455329</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.89524673347391</v>
+        <v>61.89524673347378</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>97.18768225025151</v>
+        <v>96.06612612133551</v>
       </c>
       <c r="L7" t="n">
-        <v>58.63755502344388</v>
+        <v>58.63755502344377</v>
       </c>
       <c r="M7" t="n">
-        <v>85.17084327827929</v>
+        <v>86.29239940719553</v>
       </c>
       <c r="N7" t="n">
-        <v>76.96369959191998</v>
+        <v>49.20518540124543</v>
       </c>
       <c r="O7" t="n">
-        <v>93.7257386327222</v>
+        <v>93.72573863272231</v>
       </c>
       <c r="P7" t="n">
-        <v>75.70087299780261</v>
+        <v>103.4593871884772</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928469</v>
+        <v>73.01783107116438</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>58.49750737927769</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>8.287118509956969</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>118.0172116724292</v>
+        <v>118.0172116724312</v>
       </c>
       <c r="N10" t="n">
         <v>171.8177168444618</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>107.28332907941</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>347.7499115416663</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8754244234233</v>
+        <v>14.87542442342333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>48.04716555533821</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.1709528269146</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>153.5976927597972</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>1.295879415167263</v>
       </c>
       <c r="I13" t="n">
         <v>86.13649374674407</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>72.18936963356833</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>48.04716555533739</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>249.3217311328261</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>206.3361689711732</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.344791028008331e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.970201792268378e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1239276.989810483</v>
+        <v>1239276.989810482</v>
       </c>
     </row>
     <row r="3">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1424226.32456105</v>
+        <v>1424226.324561049</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17208.48870458231</v>
+        <v>17208.4887045823</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
-        <v>19168.57954878275</v>
+        <v>19168.57954878276</v>
       </c>
       <c r="F2" t="n">
         <v>19168.57954878276</v>
       </c>
       <c r="G2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="I2" t="n">
         <v>20526.04424660706</v>
       </c>
-      <c r="H2" t="n">
-        <v>20526.04424660706</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.04424660708</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>171151.3438715904</v>
+        <v>171151.3438715909</v>
       </c>
       <c r="D3" t="n">
-        <v>330566.1828097471</v>
+        <v>330566.1828097472</v>
       </c>
       <c r="E3" t="n">
-        <v>795641.6244428756</v>
+        <v>795641.624442875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177108</v>
+        <v>25288.16188177115</v>
       </c>
       <c r="H3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7144.153280225438</v>
+        <v>7144.153280225556</v>
       </c>
       <c r="L3" t="n">
-        <v>78955.96516982073</v>
+        <v>78955.96516982076</v>
       </c>
       <c r="M3" t="n">
-        <v>204957.1230692804</v>
+        <v>204957.1230692801</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316573.0176407669</v>
+        <v>316573.0176407668</v>
       </c>
       <c r="C4" t="n">
-        <v>350239.0167037612</v>
+        <v>350239.016703761</v>
       </c>
       <c r="D4" t="n">
-        <v>255177.1421685146</v>
+        <v>255177.1421685144</v>
       </c>
       <c r="E4" t="n">
         <v>8669.990103765376</v>
       </c>
       <c r="F4" t="n">
-        <v>8669.990103765376</v>
+        <v>8669.990103765398</v>
       </c>
       <c r="G4" t="n">
-        <v>39739.87518598536</v>
+        <v>39739.87518598541</v>
       </c>
       <c r="H4" t="n">
+        <v>39739.87518598541</v>
+      </c>
+      <c r="I4" t="n">
         <v>39739.87518598542</v>
       </c>
-      <c r="I4" t="n">
-        <v>39739.87518598537</v>
-      </c>
       <c r="J4" t="n">
-        <v>39739.87518598542</v>
+        <v>39739.87518598534</v>
       </c>
       <c r="K4" t="n">
-        <v>39739.87518598543</v>
+        <v>39739.8751859854</v>
       </c>
       <c r="L4" t="n">
-        <v>39739.87518598542</v>
+        <v>39739.87518598541</v>
       </c>
       <c r="M4" t="n">
-        <v>39739.87518598535</v>
+        <v>39739.87518598538</v>
       </c>
       <c r="N4" t="n">
-        <v>39739.87518598529</v>
+        <v>39739.87518598541</v>
       </c>
       <c r="O4" t="n">
-        <v>39739.8751859853</v>
+        <v>39739.87518598539</v>
       </c>
       <c r="P4" t="n">
-        <v>39739.87518598529</v>
+        <v>39739.87518598544</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>41515.23339280493</v>
+        <v>41515.23339280495</v>
       </c>
       <c r="D5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.70223437334</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="F5" t="n">
         <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="M5" t="n">
-        <v>95106.43410215531</v>
-      </c>
       <c r="N5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437735.7480023615</v>
+        <v>-438067.5035565639</v>
       </c>
       <c r="C6" t="n">
-        <v>-542379.5497215495</v>
+        <v>-542379.5497215498</v>
       </c>
       <c r="D6" t="n">
         <v>-626362.9829660278</v>
       </c>
       <c r="E6" t="n">
-        <v>-877592.0309984653</v>
+        <v>-877727.7774682471</v>
       </c>
       <c r="F6" t="n">
-        <v>-81950.40655558964</v>
+        <v>-82086.1530253721</v>
       </c>
       <c r="G6" t="n">
-        <v>-139608.4269233047</v>
+        <v>-139608.4269233048</v>
       </c>
       <c r="H6" t="n">
+        <v>-114320.2650415336</v>
+      </c>
+      <c r="I6" t="n">
         <v>-114320.2650415337</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-114320.2650415335</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-114320.2650415337</v>
       </c>
       <c r="K6" t="n">
         <v>-121464.4183217591</v>
@@ -26552,16 +26552,16 @@
         <v>-193276.2302113544</v>
       </c>
       <c r="M6" t="n">
-        <v>-319277.388110814</v>
+        <v>-319277.3881108137</v>
       </c>
       <c r="N6" t="n">
+        <v>-114320.2650415336</v>
+      </c>
+      <c r="O6" t="n">
         <v>-114320.2650415335</v>
       </c>
-      <c r="O6" t="n">
-        <v>-114320.2650415336</v>
-      </c>
       <c r="P6" t="n">
-        <v>-114320.2650415335</v>
+        <v>-114320.2650415337</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221392</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221389</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>284.3998041289873</v>
+        <v>284.3998041289877</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26790,10 +26790,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="D4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1056725656966</v>
+        <v>178.1056725656971</v>
       </c>
       <c r="D3" t="n">
         <v>309.0762962090773</v>
       </c>
       <c r="E3" t="n">
-        <v>684.6837702820584</v>
+        <v>684.6837702820579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="D4" t="n">
-        <v>212.0494339508301</v>
+        <v>212.0494339508306</v>
       </c>
       <c r="E4" t="n">
-        <v>822.4471640474483</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.7585141906742</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="L4" t="n">
         <v>212.0494339508303</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474485</v>
+        <v>822.4471640474476</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508301</v>
+        <v>212.0494339508306</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474483</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>257.9895626915976</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>59.12613420004516</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>335.0985819152745</v>
@@ -27430,13 +27430,13 @@
         <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2252865051633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3114678604996</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>85.96255371481348</v>
       </c>
       <c r="S3" t="n">
-        <v>167.4364197154366</v>
+        <v>167.4364197154365</v>
       </c>
       <c r="T3" t="n">
         <v>199.2431786296644</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>354.9753274728062</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.3515873873773</v>
+        <v>327.7658192251702</v>
       </c>
       <c r="I5" t="n">
-        <v>166.398207364646</v>
+        <v>166.3982073646459</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.29179291181194</v>
+        <v>50.2917929118116</v>
       </c>
       <c r="S5" t="n">
-        <v>182.9667608964391</v>
+        <v>179.5525290586459</v>
       </c>
       <c r="T5" t="n">
-        <v>218.0909846693589</v>
+        <v>190.3324704786843</v>
       </c>
       <c r="U5" t="n">
-        <v>223.4956734535226</v>
+        <v>223.4956734535224</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>122.9953662654927</v>
+        <v>122.9953662654925</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>117.3106982027094</v>
+        <v>117.3106982027092</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7317892826313</v>
+        <v>108.9732750919566</v>
       </c>
       <c r="H6" t="n">
-        <v>78.56892656759533</v>
+        <v>106.3274407582698</v>
       </c>
       <c r="I6" t="n">
-        <v>40.57643505307507</v>
+        <v>68.33494924374948</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>62.17704521632289</v>
+        <v>34.41853102564817</v>
       </c>
       <c r="S6" t="n">
-        <v>160.3205940237788</v>
+        <v>160.3205940237787</v>
       </c>
       <c r="T6" t="n">
         <v>197.6990360533637</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>117.6625338322568</v>
+        <v>117.6625338322566</v>
       </c>
       <c r="G7" t="n">
         <v>167.4781272526524</v>
       </c>
       <c r="H7" t="n">
-        <v>157.6674510576339</v>
+        <v>129.9089368669592</v>
       </c>
       <c r="I7" t="n">
-        <v>112.269099227425</v>
+        <v>140.0276134180994</v>
       </c>
       <c r="J7" t="n">
-        <v>32.65083693701636</v>
+        <v>32.65083693701609</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.45915863754287</v>
+        <v>15.45915863754258</v>
       </c>
       <c r="R7" t="n">
-        <v>154.2336957833667</v>
+        <v>154.2336957833666</v>
       </c>
       <c r="S7" t="n">
         <v>215.0789845203285</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791777</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307565</v>
       </c>
       <c r="F8" t="n">
-        <v>214.7550038185987</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>242.1070339337164</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079538</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>146.429990514549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,19 +27932,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>142.5136842826128</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>113.4829660593834</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>116.4698484412467</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>75.66075561081306</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232275</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.6102023522127</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="C35" t="n">
         <v>31.61020235221394</v>
@@ -30004,7 +30004,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
         <v>31.61020235221394</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605353</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221253</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221253</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31051,7 +31051,7 @@
         <v>36.2676645176677</v>
       </c>
       <c r="K2" t="n">
-        <v>54.35582768982485</v>
+        <v>54.35582768982486</v>
       </c>
       <c r="L2" t="n">
         <v>67.43321072029745</v>
@@ -31063,7 +31063,7 @@
         <v>76.24654323685169</v>
       </c>
       <c r="O2" t="n">
-        <v>71.99744868114325</v>
+        <v>71.99744868114327</v>
       </c>
       <c r="P2" t="n">
         <v>61.44815672951015</v>
@@ -31124,7 +31124,7 @@
         <v>2.208110167003453</v>
       </c>
       <c r="I3" t="n">
-        <v>7.871782384639921</v>
+        <v>7.871782384639922</v>
       </c>
       <c r="J3" t="n">
         <v>21.60077252834759</v>
@@ -31133,7 +31133,7 @@
         <v>36.91916077137427</v>
       </c>
       <c r="L3" t="n">
-        <v>49.64236776453494</v>
+        <v>49.64236776453495</v>
       </c>
       <c r="M3" t="n">
         <v>57.93030170199339</v>
@@ -31142,22 +31142,22 @@
         <v>59.46354441105257</v>
       </c>
       <c r="O3" t="n">
-        <v>54.39752598975308</v>
+        <v>54.39752598975309</v>
       </c>
       <c r="P3" t="n">
         <v>43.65881037738254</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.18475853790576</v>
+        <v>29.18475853790577</v>
       </c>
       <c r="R3" t="n">
         <v>14.19528043782965</v>
       </c>
       <c r="S3" t="n">
-        <v>4.246751388401279</v>
+        <v>4.24675138840128</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9215500651572082</v>
+        <v>0.9215500651572083</v>
       </c>
       <c r="U3" t="n">
         <v>0.0150416223910317</v>
@@ -31203,10 +31203,10 @@
         <v>1.70419115850653</v>
       </c>
       <c r="I4" t="n">
-        <v>5.764278478874846</v>
+        <v>5.764278478874845</v>
       </c>
       <c r="J4" t="n">
-        <v>13.55163051094608</v>
+        <v>13.55163051094609</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -31224,7 +31224,7 @@
         <v>27.09280586141055</v>
       </c>
       <c r="P4" t="n">
-        <v>23.18257584127898</v>
+        <v>23.18257584127899</v>
       </c>
       <c r="Q4" t="n">
         <v>16.05041386605689</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143315795493415</v>
+        <v>1.143315795493417</v>
       </c>
       <c r="H5" t="n">
-        <v>11.70898289059694</v>
+        <v>11.70898289059696</v>
       </c>
       <c r="I5" t="n">
-        <v>44.07768220575993</v>
+        <v>44.07768220576001</v>
       </c>
       <c r="J5" t="n">
-        <v>97.03749899775934</v>
+        <v>97.0374989977595</v>
       </c>
       <c r="K5" t="n">
-        <v>145.4340566209956</v>
+        <v>145.4340566209959</v>
       </c>
       <c r="L5" t="n">
-        <v>180.4238073973273</v>
+        <v>180.4238073973276</v>
       </c>
       <c r="M5" t="n">
-        <v>200.7562496754333</v>
+        <v>200.7562496754336</v>
       </c>
       <c r="N5" t="n">
-        <v>204.004695679379</v>
+        <v>204.0046956793793</v>
       </c>
       <c r="O5" t="n">
-        <v>192.6358492379413</v>
+        <v>192.6358492379416</v>
       </c>
       <c r="P5" t="n">
-        <v>164.4102405366976</v>
+        <v>164.4102405366979</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.4652436105896</v>
+        <v>123.4652436105898</v>
       </c>
       <c r="R5" t="n">
-        <v>71.81881083866331</v>
+        <v>71.81881083866342</v>
       </c>
       <c r="S5" t="n">
-        <v>26.05330868980623</v>
+        <v>26.05330868980627</v>
       </c>
       <c r="T5" t="n">
-        <v>5.004864894772428</v>
+        <v>5.004864894772436</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09146526363947322</v>
+        <v>0.09146526363947335</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6117278805793311</v>
+        <v>0.6117278805793321</v>
       </c>
       <c r="H6" t="n">
-        <v>5.908003478226699</v>
+        <v>5.908003478226709</v>
       </c>
       <c r="I6" t="n">
-        <v>21.06168360766557</v>
+        <v>21.0616836076656</v>
       </c>
       <c r="J6" t="n">
-        <v>57.79486962964638</v>
+        <v>57.79486962964647</v>
       </c>
       <c r="K6" t="n">
-        <v>98.78063762846156</v>
+        <v>98.78063762846172</v>
       </c>
       <c r="L6" t="n">
-        <v>132.8227575792973</v>
+        <v>132.8227575792975</v>
       </c>
       <c r="M6" t="n">
-        <v>154.9978932502981</v>
+        <v>154.9978932502983</v>
       </c>
       <c r="N6" t="n">
-        <v>159.1002262740077</v>
+        <v>159.100226274008</v>
       </c>
       <c r="O6" t="n">
-        <v>145.5456242885394</v>
+        <v>145.5456242885396</v>
       </c>
       <c r="P6" t="n">
-        <v>116.8131950204514</v>
+        <v>116.8131950204516</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.08652735254761</v>
+        <v>78.08652735254773</v>
       </c>
       <c r="R6" t="n">
-        <v>37.98078893632024</v>
+        <v>37.9807889363203</v>
       </c>
       <c r="S6" t="n">
-        <v>11.36257708005906</v>
+        <v>11.36257708005908</v>
       </c>
       <c r="T6" t="n">
-        <v>2.465692641457917</v>
+        <v>2.465692641457921</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0402452553012718</v>
+        <v>0.04024525530127187</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5128521058063704</v>
+        <v>0.5128521058063713</v>
       </c>
       <c r="H7" t="n">
-        <v>4.559721449805734</v>
+        <v>4.559721449805741</v>
       </c>
       <c r="I7" t="n">
-        <v>15.42286150915885</v>
+        <v>15.42286150915888</v>
       </c>
       <c r="J7" t="n">
-        <v>36.25864388051039</v>
+        <v>36.25864388051045</v>
       </c>
       <c r="K7" t="n">
-        <v>59.5840901109583</v>
+        <v>59.58409011095839</v>
       </c>
       <c r="L7" t="n">
-        <v>76.2471212577944</v>
+        <v>76.24712125779452</v>
       </c>
       <c r="M7" t="n">
-        <v>80.39189873108404</v>
+        <v>80.39189873108417</v>
       </c>
       <c r="N7" t="n">
-        <v>78.48035906398763</v>
+        <v>78.48035906398776</v>
       </c>
       <c r="O7" t="n">
-        <v>72.48931400979501</v>
+        <v>72.48931400979512</v>
       </c>
       <c r="P7" t="n">
-        <v>62.027131051345</v>
+        <v>62.02713105134509</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.94437042347708</v>
+        <v>42.94437042347715</v>
       </c>
       <c r="R7" t="n">
-        <v>23.0596955938028</v>
+        <v>23.05969559380283</v>
       </c>
       <c r="S7" t="n">
-        <v>8.937613516643744</v>
+        <v>8.937613516643758</v>
       </c>
       <c r="T7" t="n">
-        <v>2.191277179354491</v>
+        <v>2.191277179354495</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02797375122580206</v>
+        <v>0.0279737512258021</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.385833569198248</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712528</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>425.7102483359667</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426698</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>616.081659441237</v>
       </c>
       <c r="O12" t="n">
-        <v>584.3932527497834</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P12" t="n">
         <v>524.9860796892351</v>
@@ -32084,13 +32084,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>626.873981279922</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>530.1489483592447</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
         <v>524.9860796892351</v>
@@ -32099,7 +32099,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486998</v>
@@ -32321,19 +32321,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>616.081659441237</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,19 +32558,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>555.1640776830025</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32798,16 +32798,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>584.3932527497834</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>443.9435090247271</v>
@@ -33032,13 +33032,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>706.0448840335913</v>
       </c>
       <c r="O27" t="n">
-        <v>555.1640776830025</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
@@ -33263,7 +33263,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>392.4972796419682</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
@@ -33272,16 +33272,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,13 +33509,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5760810583992</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33649,46 +33649,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O35" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R35" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,31 +33728,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>211.6584993001642</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33810,7 +33810,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33819,13 +33819,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
         <v>325.7840929246177</v>
@@ -33840,10 +33840,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33886,46 +33886,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O38" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,37 +33965,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>414.6940864885827</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34047,7 +34047,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34056,13 +34056,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34123,46 +34123,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O41" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,37 +34202,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>530.1489483592443</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34284,7 +34284,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34293,13 +34293,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
         <v>325.7840929246177</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34360,46 +34360,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383703</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O44" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829633</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R44" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T44" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,34 +34439,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115857</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>357.5145194463132</v>
       </c>
       <c r="M45" t="n">
-        <v>601.858851956164</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R45" t="n">
         <v>170.6946332877214</v>
@@ -34521,7 +34521,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34530,13 +34530,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
         <v>325.7840929246177</v>
@@ -34551,10 +34551,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="K5" t="n">
-        <v>27.75851419067443</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>26.63695806175852</v>
       </c>
       <c r="P5" t="n">
-        <v>26.63695806175828</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>26.63695806175828</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.75851419067443</v>
+        <v>26.63695806175852</v>
       </c>
       <c r="N6" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="O6" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>27.75851419067443</v>
+        <v>26.63695806175852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>26.63695806175828</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="N7" t="n">
-        <v>27.75851419067443</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>27.75851419067443</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.75851419067466</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393758</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605649</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>66.78462588923601</v>
       </c>
       <c r="K9" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.6157555714078</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>239.8079481415045</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.6633754067318</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>169.41066666022</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528269</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>146.8505817925167</v>
+        <v>146.8505817925188</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353372</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="O12" t="n">
-        <v>441.7970083053389</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P12" t="n">
         <v>391.0116722749049</v>
@@ -35653,7 +35653,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151683</v>
@@ -35732,13 +35732,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>387.5527039148003</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749049</v>
@@ -35747,7 +35747,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579036</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>412.567833238558</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
@@ -36291,7 +36291,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>441.7970083053389</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895095</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>306.1020700503681</v>
@@ -36680,13 +36680,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>574.703171950258</v>
       </c>
       <c r="O27" t="n">
-        <v>412.567833238558</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
@@ -36756,16 +36756,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36911,7 +36911,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>254.6558406676093</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
@@ -36920,16 +36920,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37157,13 +37157,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>141.2343689750659</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895099</v>
@@ -37242,10 +37242,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L35" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R35" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>69.0622548557198</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P36" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895099</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>272.0978420441382</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895095</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>387.5527039147998</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116844</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276938</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.906163644919</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503682</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>218.960139666439</v>
       </c>
       <c r="M45" t="n">
-        <v>459.7248180341458</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133841</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375749</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
